--- a/biology/Botanique/Racine_pivotante/Racine_pivotante.xlsx
+++ b/biology/Botanique/Racine_pivotante/Racine_pivotante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une racine pivotante est une racine de plante relativement droite et fuselée à orthogravitropisme positif. Elle forme un pôle à partir duquel d'autres racines poussent latéralement.
 Les plantes avec des racines pivotantes sont difficiles à déraciner et à transplanter. Leur système racinaire pivotant diffère du système racinaire fasciculé et traçant.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beaucoup de plantes (le clade entier des eudicotylédones)[1] commencent leur croissance par une racine pivotante. Elle peut persister toute la vie de la plante (elle est alors issue de la radicule qui poursuit sa croissance), mais est le plus souvent progressivement remplacée par un système racinaire fasciculé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beaucoup de plantes (le clade entier des eudicotylédones) commencent leur croissance par une racine pivotante. Elle peut persister toute la vie de la plante (elle est alors issue de la radicule qui poursuit sa croissance), mais est le plus souvent progressivement remplacée par un système racinaire fasciculé.
 La forme des racines pivotantes est variable, mais les formes typiques sont :
 Racine conique : racine tubérisée de carotte par exemple ;
 Racine fusiforme : racine de radis par exemple ;
@@ -551,7 +565,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Racine pivotante d'Apium graveolens
